--- a/data/trans_bre/P29_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,12 +525,16 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume diariamente raciones de verdura u hortalizas al día</t>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,26</t>
+          <t>-11,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,61</t>
+          <t>-8,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,41</t>
+          <t>-9,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,96</t>
+          <t>-7,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-32,48%</t>
+          <t>-12,97</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-28,65%</t>
+          <t>-9,63</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-29,77%</t>
+          <t>-34,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-26,11%</t>
+          <t>-29,42%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-29,41%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-26,87%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-26,13%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-25,14%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,52; -4,46</t>
+          <t>-16,68; -5,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,68; -3,84</t>
+          <t>-13,69; -4,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,66; -4,48</t>
+          <t>-14,25; -4,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,15; -7,12</t>
+          <t>-13,29; -2,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,04; -15,37</t>
+          <t>-18,54; -7,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,94; -13,33</t>
+          <t>-15,33; -4,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-42,24; -15,47</t>
+          <t>-47,05; -19,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-34,81; -15,74</t>
+          <t>-41,98; -15,51</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-41,1; -14,67</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-42,43; -9,44</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-34,99; -15,21</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-36,55; -13,4</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-14,89</t>
+          <t>-15,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,35</t>
+          <t>-7,37</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-6,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-43,22%</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,95%</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-20,54%</t>
+          <t>-43,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>-23,09%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-20,08%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-16,21%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-1,21%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-23,5%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,29; -7,78</t>
+          <t>-22,08; -8,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,85; -1,69</t>
+          <t>-12,85; -1,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,96; -0,65</t>
+          <t>-13,23; -1,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 9,18</t>
+          <t>-11,73; 1,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,94; -26,02</t>
+          <t>-9,71; 9,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,66; -5,76</t>
+          <t>-15,34; 1,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,73; -1,3</t>
+          <t>-57,19; -27,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 27,66</t>
+          <t>-36,9; -6,55</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-35,35; -3,39</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-33,57; 7,6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-22,26; 28,71</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-44,21; 6,39</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,63</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,05</t>
+          <t>-8,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-15,06</t>
+          <t>-14,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,09</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-36,54%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,82%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-35,59%</t>
+          <t>-22,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-21,87%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-34,29%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18,82%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 0,91</t>
+          <t>-17,78; 3,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 2,61</t>
+          <t>-18,99; 3,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,28; -3,57</t>
+          <t>-27,95; -2,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-7,86; 18,91</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-58,08; 5,02</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,46; 9,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-55,09; -9,07</t>
+          <t>-51,23; 16,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-44,35; 10,22</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-54,02; -4,25</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-24,02; 95,69</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,24</t>
+          <t>-12,1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,29</t>
+          <t>-8,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,22</t>
+          <t>-9,1</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,99</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-37,37%</t>
+          <t>-10,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-26,07%</t>
+          <t>-8,9</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-27,28%</t>
+          <t>-36,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>-26,22%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-26,75%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-17,78%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-21,29%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-24,46%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,12; -8,0</t>
+          <t>-16,44; -8,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,99; -4,69</t>
+          <t>-11,62; -4,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,74; -5,5</t>
+          <t>-12,9; -5,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,37; -5,13</t>
+          <t>-9,06; -0,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,63; -26,48</t>
+          <t>-14,65; -5,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,98; -15,6</t>
+          <t>-13,28; -4,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,66; -16,89</t>
+          <t>-45,9; -26,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,37; -11,3</t>
+          <t>-34,46; -15,78</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-35,47; -16,66</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-29,07; -2,41</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-29,12; -11,35</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-33,98; -13,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P29_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-11,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-8,81</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-9,45</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-7,48</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-12,97</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-9,63</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-34,14%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-29,42%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-29,41%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-26,87%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-26,13%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-25,14%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-10.18495521972267</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-8.238822563869514</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-9.329743328900022</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-7.464355551466751</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-12.97174847002321</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-9.453775159148552</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.326814679663121</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.2785502536994423</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.2900390192147964</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.2685043684392798</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.2612561296793934</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.2467885450558212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-16,68; -5,61</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,69; -4,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,25; -4,24</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,29; -2,34</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-18,54; -7,05</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-15,33; -4,78</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-47,05; -19,9</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-41,98; -15,51</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-41,1; -14,67</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-42,43; -9,44</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-34,99; -15,21</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-36,55; -13,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-15.53998057824502</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-13.26501434824799</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-14.3342892078454</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-13.22416945346373</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-18.53862288150134</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-15.09642524797285</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4541000390848203</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4094119813989729</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4120819557305331</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4260549508691241</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.349853607760223</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.3606808902736598</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-4.870865755411416</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-3.783284041659781</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-4.025452171463288</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-2.222635865719415</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-7.054350608459268</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-4.627984466139848</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>-0.1820771041174762</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.1364305571140285</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.1464239008639639</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-0.09219494828908724</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>-0.1520622158486054</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>-0.1293525710598512</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-15,22</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-7,37</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-6,78</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-4,98</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-7,14</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-43,67%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-23,09%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-20,08%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-16,21%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-1,21%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-23,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-22,08; -8,72</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-12,85; -1,77</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-13,23; -1,01</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,73; 1,82</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-9,71; 9,47</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-15,34; 1,6</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-57,19; -27,87</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-36,9; -6,55</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-35,35; -3,39</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-33,57; 7,6</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-22,26; 28,71</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-44,21; 6,39</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-14.51542502498564</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-7.352300281035218</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-6.999216315577728</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-4.533241152160095</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.4659280100304308</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-7.732512796114205</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.4195246117763562</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2294547063261118</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.2058885838600634</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.1506466343224141</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.01212211795005736</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.2526525383897079</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,39</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-8,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-14,54</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-22,98%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-21,87%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-34,29%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>18,82%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-21.33904565756167</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-13.30820670723912</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-13.5834976248275</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-11.40559433604688</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-9.713474867903113</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-15.99309698205891</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5551273749218647</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3743136946648767</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3589696416296126</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3316788964218241</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.2226442972484028</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.4554413999383919</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-17,78; 3,49</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-18,99; 3,16</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-27,95; -2,15</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,86; 18,91</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-51,23; 16,43</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-44,35; 10,22</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-54,02; -4,25</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-24,02; 95,69</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-8.077723772258619</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-1.78091149571566</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-1.2917520185904</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.836690929380043</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>9.4731309536186</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.8159753585542266</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.2543902317901623</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.06193716618885808</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.04107381455463852</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.0712789469556975</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.2870975125374824</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.03794628724482806</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-12,1</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-8,3</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-9,1</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-5,14</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-10,0</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-8,9</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-36,97%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-26,22%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-26,75%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-17,78%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-21,29%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-24,46%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-9.851114226969193</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-8.134186141140571</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-15.07927187049683</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>5.486461177919699</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.3283332962922686</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2185171399442903</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.3553124014724051</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.2050710572890241</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-16,44; -8,19</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-11,62; -4,73</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-12,9; -5,25</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-9,06; -0,83</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-14,65; -5,11</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-13,28; -4,44</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-45,9; -26,47</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-34,46; -15,78</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-35,47; -16,66</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-29,07; -2,41</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-29,12; -11,35</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-33,98; -13,55</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-23.20375957299967</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-19.05163154104087</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-28.64644186038469</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.455945991881626</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.5910093480263215</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4431529754259083</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.5549648862753601</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.2297034292120889</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.166261581858241</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.064090152701826</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-2.849629776731093</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>19.73800779442119</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.04583448018531997</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.09526100992769169</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.06898887143586671</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.987496116295849</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-11.85429032380411</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-8.009767388207885</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-9.193175132134218</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-4.900313542816617</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-9.998901448120655</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-8.903676487600881</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.365936571323172</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.2542543120979834</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.2692298160827</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1713914083506815</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.2129391824607759</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.2443313745263992</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-15.8816086694127</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-11.50841871768929</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-13.01230569198431</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-8.953009477122421</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-14.65271921077745</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-13.3359591152042</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4564069278865789</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3402001348050085</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3544631976690695</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2847227367660226</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.2911630822732403</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.3401747928106498</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-7.758664798769613</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-4.550667437538493</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-5.319967373051016</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-0.6341675958701037</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-5.110494025259624</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-4.459683715536592</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.2598631640365954</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.1479922577874727</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.1684755109458909</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.02111326623675205</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>-0.1135330054471382</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>-0.1360977476592351</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
